--- a/config_debug/qhb_help_config.xlsx
+++ b/config_debug/qhb_help_config.xlsx
@@ -89,13 +89,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2、踩雷后自己扣除该红包总额的金币，扣除的金币存入聚宝盆；</t>
-  </si>
-  <si>
     <t>3、但玩家踩雷后，系统会自动发送该红包总额的金币给发红包玩家。\n</t>
   </si>
   <si>
     <t>1、发的红包额度不能超过自身携带的金币；</t>
+  </si>
+  <si>
+    <t>2、踩雷后自己扣除该红包总额的金币；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,7 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +237,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,7 +549,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,8 +599,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -607,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
@@ -626,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
